--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgm2-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.37146666666666</v>
+        <v>61.06878433333333</v>
       </c>
       <c r="H2">
-        <v>172.1144</v>
+        <v>183.206353</v>
       </c>
       <c r="I2">
-        <v>0.3670776276928175</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="J2">
-        <v>0.3670776276928174</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>9392.396709485154</v>
+        <v>9739.471853004883</v>
       </c>
       <c r="R2">
-        <v>84531.57038536639</v>
+        <v>87655.24667704395</v>
       </c>
       <c r="S2">
-        <v>0.1010932910804926</v>
+        <v>0.1285218978925219</v>
       </c>
       <c r="T2">
-        <v>0.1010932910804925</v>
+        <v>0.1285218978925219</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.37146666666666</v>
+        <v>61.06878433333333</v>
       </c>
       <c r="H3">
-        <v>172.1144</v>
+        <v>183.206353</v>
       </c>
       <c r="I3">
-        <v>0.3670776276928175</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="J3">
-        <v>0.3670776276928174</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>9899.934058685598</v>
+        <v>10537.93763817715</v>
       </c>
       <c r="R3">
-        <v>89099.4065281704</v>
+        <v>94841.43874359432</v>
       </c>
       <c r="S3">
-        <v>0.1065560736443005</v>
+        <v>0.1390584382369474</v>
       </c>
       <c r="T3">
-        <v>0.1065560736443004</v>
+        <v>0.1390584382369474</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.37146666666666</v>
+        <v>61.06878433333333</v>
       </c>
       <c r="H4">
-        <v>172.1144</v>
+        <v>183.206353</v>
       </c>
       <c r="I4">
-        <v>0.3670776276928175</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="J4">
-        <v>0.3670776276928174</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>6396.239503777689</v>
+        <v>4542.766754409145</v>
       </c>
       <c r="R4">
-        <v>57566.1555339992</v>
+        <v>40884.9007896823</v>
       </c>
       <c r="S4">
-        <v>0.06884471791134424</v>
+        <v>0.05994626954844412</v>
       </c>
       <c r="T4">
-        <v>0.06884471791134422</v>
+        <v>0.05994626954844413</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.37146666666666</v>
+        <v>61.06878433333333</v>
       </c>
       <c r="H5">
-        <v>172.1144</v>
+        <v>183.206353</v>
       </c>
       <c r="I5">
-        <v>0.3670776276928175</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="J5">
-        <v>0.3670776276928174</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>3427.048034832888</v>
+        <v>3567.309484637176</v>
       </c>
       <c r="R5">
-        <v>30843.43231349599</v>
+        <v>32105.78536173458</v>
       </c>
       <c r="S5">
-        <v>0.0368863853655498</v>
+        <v>0.0470741527112799</v>
       </c>
       <c r="T5">
-        <v>0.03688638536554979</v>
+        <v>0.04707415271127991</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.37146666666666</v>
+        <v>61.06878433333333</v>
       </c>
       <c r="H6">
-        <v>172.1144</v>
+        <v>183.206353</v>
       </c>
       <c r="I6">
-        <v>0.3670776276928175</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="J6">
-        <v>0.3670776276928174</v>
+        <v>0.4308066250287063</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>4988.906984837422</v>
+        <v>4259.316622970083</v>
       </c>
       <c r="R6">
-        <v>44900.1628635368</v>
+        <v>38333.84960673075</v>
       </c>
       <c r="S6">
-        <v>0.05369715969113041</v>
+        <v>0.05620586663951293</v>
       </c>
       <c r="T6">
-        <v>0.0536971596911304</v>
+        <v>0.05620586663951294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>10.864809</v>
       </c>
       <c r="I7">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="J7">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>592.899817219156</v>
+        <v>577.5864194173121</v>
       </c>
       <c r="R7">
-        <v>5336.098354972404</v>
+        <v>5198.277774755808</v>
       </c>
       <c r="S7">
-        <v>0.006381565393546128</v>
+        <v>0.007621820150089192</v>
       </c>
       <c r="T7">
-        <v>0.006381565393546127</v>
+        <v>0.007621820150089191</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>10.864809</v>
       </c>
       <c r="I8">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="J8">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>624.938370410691</v>
@@ -948,10 +948,10 @@
         <v>5624.445333696219</v>
       </c>
       <c r="S8">
-        <v>0.006726406320071179</v>
+        <v>0.008246675655853105</v>
       </c>
       <c r="T8">
-        <v>0.006726406320071177</v>
+        <v>0.008246675655853103</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>10.864809</v>
       </c>
       <c r="I9">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="J9">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>403.765870414093</v>
+        <v>269.402738005517</v>
       </c>
       <c r="R9">
-        <v>3633.892833726838</v>
+        <v>2424.624642049653</v>
       </c>
       <c r="S9">
-        <v>0.004345857817623826</v>
+        <v>0.003555033754240836</v>
       </c>
       <c r="T9">
-        <v>0.004345857817623825</v>
+        <v>0.003555033754240836</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>10.864809</v>
       </c>
       <c r="I10">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="J10">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>216.33414945109</v>
+        <v>211.554542513443</v>
       </c>
       <c r="R10">
-        <v>1947.00734505981</v>
+        <v>1903.990882620987</v>
       </c>
       <c r="S10">
-        <v>0.002328471828604079</v>
+        <v>0.002791669992169368</v>
       </c>
       <c r="T10">
-        <v>0.002328471828604078</v>
+        <v>0.002791669992169368</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>10.864809</v>
       </c>
       <c r="I11">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="J11">
-        <v>0.02317196186406003</v>
+        <v>0.02554841368886107</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>314.927289692347</v>
+        <v>252.593105104248</v>
       </c>
       <c r="R11">
-        <v>2834.345607231123</v>
+        <v>2273.337945938232</v>
       </c>
       <c r="S11">
-        <v>0.003389660504214819</v>
+        <v>0.003333214136508574</v>
       </c>
       <c r="T11">
-        <v>0.003389660504214818</v>
+        <v>0.003333214136508574</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>52.06923066666667</v>
+        <v>36.843258</v>
       </c>
       <c r="H12">
-        <v>156.207692</v>
+        <v>110.529774</v>
       </c>
       <c r="I12">
-        <v>0.3331525369564099</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="J12">
-        <v>0.3331525369564098</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>8524.357127219284</v>
+        <v>5875.896797050433</v>
       </c>
       <c r="R12">
-        <v>76719.21414497355</v>
+        <v>52883.07117345389</v>
       </c>
       <c r="S12">
-        <v>0.09175031070246265</v>
+        <v>0.07753822995489423</v>
       </c>
       <c r="T12">
-        <v>0.0917503107024626</v>
+        <v>0.07753822995489423</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>52.06923066666667</v>
+        <v>36.843258</v>
       </c>
       <c r="H13">
-        <v>156.207692</v>
+        <v>110.529774</v>
       </c>
       <c r="I13">
-        <v>0.3331525369564099</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="J13">
-        <v>0.3331525369564098</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>8984.988183786309</v>
+        <v>6357.617225063225</v>
       </c>
       <c r="R13">
-        <v>80864.89365407678</v>
+        <v>57218.55502556903</v>
       </c>
       <c r="S13">
-        <v>0.09670822622952066</v>
+        <v>0.08389500418210254</v>
       </c>
       <c r="T13">
-        <v>0.09670822622952062</v>
+        <v>0.08389500418210254</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>52.06923066666667</v>
+        <v>36.843258</v>
       </c>
       <c r="H14">
-        <v>156.207692</v>
+        <v>110.529774</v>
       </c>
       <c r="I14">
-        <v>0.3331525369564099</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="J14">
-        <v>0.3331525369564098</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>5805.102945275573</v>
+        <v>2740.685431905062</v>
       </c>
       <c r="R14">
-        <v>52245.92650748016</v>
+        <v>24666.16888714556</v>
       </c>
       <c r="S14">
-        <v>0.06248213102054299</v>
+        <v>0.03616603636737756</v>
       </c>
       <c r="T14">
-        <v>0.06248213102054299</v>
+        <v>0.03616603636737757</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>52.06923066666667</v>
+        <v>36.843258</v>
       </c>
       <c r="H15">
-        <v>156.207692</v>
+        <v>110.529774</v>
       </c>
       <c r="I15">
-        <v>0.3331525369564099</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="J15">
-        <v>0.3331525369564098</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>3110.322343129809</v>
+        <v>2152.184706853498</v>
       </c>
       <c r="R15">
-        <v>27992.90108816828</v>
+        <v>19369.66236168148</v>
       </c>
       <c r="S15">
-        <v>0.03347736810037458</v>
+        <v>0.02840019123364819</v>
       </c>
       <c r="T15">
-        <v>0.03347736810037457</v>
+        <v>0.02840019123364819</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>52.06923066666667</v>
+        <v>36.843258</v>
       </c>
       <c r="H16">
-        <v>156.207692</v>
+        <v>110.529774</v>
       </c>
       <c r="I16">
-        <v>0.3331525369564099</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="J16">
-        <v>0.3331525369564098</v>
+        <v>0.2599088848306786</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>4527.835240422259</v>
+        <v>2569.677830611728</v>
       </c>
       <c r="R16">
-        <v>40750.51716380032</v>
+        <v>23127.10047550555</v>
       </c>
       <c r="S16">
-        <v>0.04873450090350904</v>
+        <v>0.03390942309265609</v>
       </c>
       <c r="T16">
-        <v>0.04873450090350902</v>
+        <v>0.0339094230926561</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.376274666666667</v>
+        <v>2.119603</v>
       </c>
       <c r="H17">
-        <v>4.128824</v>
+        <v>6.358808999999999</v>
       </c>
       <c r="I17">
-        <v>0.008805764765070032</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="J17">
-        <v>0.008805764765070031</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>225.3126580439715</v>
+        <v>338.0419961426453</v>
       </c>
       <c r="R17">
-        <v>2027.813922395744</v>
+        <v>3042.377965283807</v>
       </c>
       <c r="S17">
-        <v>0.002425110312978599</v>
+        <v>0.004460796187652124</v>
       </c>
       <c r="T17">
-        <v>0.002425110312978598</v>
+        <v>0.004460796187652124</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.376274666666667</v>
+        <v>2.119603</v>
       </c>
       <c r="H18">
-        <v>4.128824</v>
+        <v>6.358808999999999</v>
       </c>
       <c r="I18">
-        <v>0.008805764765070032</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="J18">
-        <v>0.008805764765070031</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>237.4878879391759</v>
+        <v>365.7555079166909</v>
       </c>
       <c r="R18">
-        <v>2137.390991452584</v>
+        <v>3291.799571250218</v>
       </c>
       <c r="S18">
-        <v>0.002556156104360561</v>
+        <v>0.004826503197665012</v>
       </c>
       <c r="T18">
-        <v>0.00255615610436056</v>
+        <v>0.004826503197665012</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.376274666666667</v>
+        <v>2.119603</v>
       </c>
       <c r="H19">
-        <v>4.128824</v>
+        <v>6.358808999999999</v>
       </c>
       <c r="I19">
-        <v>0.008805764765070032</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="J19">
-        <v>0.008805764765070031</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>153.4383362051369</v>
+        <v>157.6724040941836</v>
       </c>
       <c r="R19">
-        <v>1380.945025846232</v>
+        <v>1419.051636847653</v>
       </c>
       <c r="S19">
-        <v>0.001651504601506835</v>
+        <v>0.002080642248913019</v>
       </c>
       <c r="T19">
-        <v>0.001651504601506834</v>
+        <v>0.002080642248913019</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.376274666666667</v>
+        <v>2.119603</v>
       </c>
       <c r="H20">
-        <v>4.128824</v>
+        <v>6.358808999999999</v>
       </c>
       <c r="I20">
-        <v>0.008805764765070032</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="J20">
-        <v>0.008805764765070031</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>82.21089098512887</v>
+        <v>123.8157917847763</v>
       </c>
       <c r="R20">
-        <v>739.8980188661599</v>
+        <v>1114.342126062987</v>
       </c>
       <c r="S20">
-        <v>0.0008848614245555909</v>
+        <v>0.001633870993151973</v>
       </c>
       <c r="T20">
-        <v>0.0008848614245555906</v>
+        <v>0.001633870993151974</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.376274666666667</v>
+        <v>2.119603</v>
       </c>
       <c r="H21">
-        <v>4.128824</v>
+        <v>6.358808999999999</v>
       </c>
       <c r="I21">
-        <v>0.008805764765070032</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="J21">
-        <v>0.008805764765070031</v>
+        <v>0.01495263127961596</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>119.6780681498142</v>
+        <v>147.834288672248</v>
       </c>
       <c r="R21">
-        <v>1077.102613348328</v>
+        <v>1330.508598050232</v>
       </c>
       <c r="S21">
-        <v>0.001288132321668448</v>
+        <v>0.001950818652233826</v>
       </c>
       <c r="T21">
-        <v>0.001288132321668447</v>
+        <v>0.001950818652233826</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>41.85388833333334</v>
+        <v>38.101267</v>
       </c>
       <c r="H22">
-        <v>125.561665</v>
+        <v>114.303801</v>
       </c>
       <c r="I22">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="J22">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>6851.983152969638</v>
+        <v>6076.528648168502</v>
       </c>
       <c r="R22">
-        <v>61667.84837672674</v>
+        <v>54688.75783351651</v>
       </c>
       <c r="S22">
-        <v>0.07375002875062343</v>
+        <v>0.08018576430506832</v>
       </c>
       <c r="T22">
-        <v>0.07375002875062341</v>
+        <v>0.08018576430506831</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>41.85388833333334</v>
+        <v>38.101267</v>
       </c>
       <c r="H23">
-        <v>125.561665</v>
+        <v>114.303801</v>
       </c>
       <c r="I23">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="J23">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>7222.244064405835</v>
+        <v>6574.697367315699</v>
       </c>
       <c r="R23">
-        <v>65000.19657965251</v>
+        <v>59172.27630584128</v>
       </c>
       <c r="S23">
-        <v>0.07773526225952616</v>
+        <v>0.08675958989045988</v>
       </c>
       <c r="T23">
-        <v>0.07773526225952614</v>
+        <v>0.08675958989045987</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>41.85388833333334</v>
+        <v>38.101267</v>
       </c>
       <c r="H24">
-        <v>125.561665</v>
+        <v>114.303801</v>
       </c>
       <c r="I24">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="J24">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>4666.21318049565</v>
+        <v>2834.265835123079</v>
       </c>
       <c r="R24">
-        <v>41995.91862446085</v>
+        <v>25508.39251610772</v>
       </c>
       <c r="S24">
-        <v>0.05022390577083444</v>
+        <v>0.0374009217090726</v>
       </c>
       <c r="T24">
-        <v>0.05022390577083443</v>
+        <v>0.0374009217090726</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>41.85388833333334</v>
+        <v>38.101267</v>
       </c>
       <c r="H25">
-        <v>125.561665</v>
+        <v>114.303801</v>
       </c>
       <c r="I25">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="J25">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>2500.115372616095</v>
+        <v>2225.67081741636</v>
       </c>
       <c r="R25">
-        <v>22501.03835354485</v>
+        <v>20031.03735674724</v>
       </c>
       <c r="S25">
-        <v>0.02690952042554294</v>
+        <v>0.02936991264573532</v>
       </c>
       <c r="T25">
-        <v>0.02690952042554293</v>
+        <v>0.02936991264573532</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>41.85388833333334</v>
+        <v>38.101267</v>
       </c>
       <c r="H26">
-        <v>125.561665</v>
+        <v>114.303801</v>
       </c>
       <c r="I26">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="J26">
-        <v>0.2677921087216426</v>
+        <v>0.268783445172138</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>3639.529682271307</v>
+        <v>2657.419198055672</v>
       </c>
       <c r="R26">
-        <v>32755.76714044176</v>
+        <v>23916.77278250105</v>
       </c>
       <c r="S26">
-        <v>0.03917339151511565</v>
+        <v>0.03506725662180189</v>
       </c>
       <c r="T26">
-        <v>0.03917339151511564</v>
+        <v>0.03506725662180189</v>
       </c>
     </row>
   </sheetData>
